--- a/dados/duartegabriella20230222153721.xlsx
+++ b/dados/duartegabriella20230222153721.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D96849e4b-f328-4681-aa1e-55c3d52920ee</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D857a0209-f2e8-4e6e-a60e-cc0916c156e6</t>
         </is>
       </c>
     </row>

--- a/dados/duartegabriella20230222153721.xlsx
+++ b/dados/duartegabriella20230222153721.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Processador Jfa Digital J4 Redline Profissional Equalizador</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>339</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D857a0209-f2e8-4e6e-a60e-cc0916c156e6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73e945cf-ec3d-4e52-95d9-83cf8b14c1f7</t>
         </is>
       </c>
     </row>

--- a/dados/duartegabriella20230222153721.xlsx
+++ b/dados/duartegabriella20230222153721.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73e945cf-ec3d-4e52-95d9-83cf8b14c1f7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De8214c3c-14eb-4729-8a80-49470e9e9947</t>
         </is>
       </c>
     </row>

--- a/dados/duartegabriella20230222153721.xlsx
+++ b/dados/duartegabriella20230222153721.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,31 +483,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>duartegabriella20230222153721</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Processador Jfa Digital J4 Redline Profissional Equalizador</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>339</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De8214c3c-14eb-4729-8a80-49470e9e9947</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4234174824-processador-jfa-digital-j4-redline-profissional-equalizador-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De13f5275-8729-4524-8243-4fb2341ca312</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>duartegabriella20230222153721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Processador De Audio Digital Equalizador Jfa J4 Red Line</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>399</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3226816467-processador-de-audio-digital-equalizador-jfa-j4-red-line-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De13f5275-8729-4524-8243-4fb2341ca312</t>
         </is>
       </c>
     </row>
